--- a/public/List-Tamu_BPS-Ogan-ilir.xlsx
+++ b/public/List-Tamu_BPS-Ogan-ilir.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>No</t>
   </si>
@@ -65,48 +65,39 @@
     <t>surrat</t>
   </si>
   <si>
-    <t>2024-01-05 10:38:03</t>
-  </si>
-  <si>
-    <t>2024-01-06 15:55:03</t>
+    <t>2025-01-08 10:00:00</t>
+  </si>
+  <si>
+    <t>2025-01-08 15:00:00</t>
   </si>
   <si>
     <t>selesai</t>
   </si>
   <si>
+    <t>gataumales009@gmail.com</t>
+  </si>
+  <si>
+    <t>Menemui Seseorang</t>
+  </si>
+  <si>
+    <t>2024-01-06 15:06:38</t>
+  </si>
+  <si>
+    <t>2024-01-06 15:40:25</t>
+  </si>
+  <si>
     <t>Mega</t>
   </si>
   <si>
+    <t>Laki-laki</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>09012909210</t>
   </si>
   <si>
-    <t>mulung</t>
-  </si>
-  <si>
-    <t>2024-01-05 18:45:12</t>
-  </si>
-  <si>
-    <t>2024-01-06 15:55:05</t>
-  </si>
-  <si>
-    <t>gataumales009@gmail.com</t>
-  </si>
-  <si>
-    <t>Menemui Seseorang</t>
-  </si>
-  <si>
-    <t>2024-01-06 15:06:38</t>
-  </si>
-  <si>
-    <t>2024-01-06 15:40:25</t>
-  </si>
-  <si>
-    <t>Laki-laki</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>PST</t>
   </si>
   <si>
@@ -215,97 +206,136 @@
     <t>2024-01-07 16:55:01</t>
   </si>
   <si>
-    <t>kaka</t>
-  </si>
-  <si>
-    <t>Warga Lokal</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>2024-01-07 16:54:06</t>
-  </si>
-  <si>
-    <t>2024-01-07 16:54:41</t>
+    <t>2024-01-08 14:06:05</t>
+  </si>
+  <si>
+    <t>2024-01-08 14:08:10</t>
+  </si>
+  <si>
+    <t>2024-01-08 14:07:27</t>
+  </si>
+  <si>
+    <t>2024-01-08 14:08:07</t>
+  </si>
+  <si>
+    <t>Umum/Lainnya</t>
+  </si>
+  <si>
+    <t>Lainnya</t>
+  </si>
+  <si>
+    <t>2024-01-08 14:07:44</t>
+  </si>
+  <si>
+    <t>2024-01-08 14:08:04</t>
+  </si>
+  <si>
+    <t>2024-01-08 14:10:15</t>
+  </si>
+  <si>
+    <t>ongoing</t>
+  </si>
+  <si>
+    <t>2024-01-08 14:12:02</t>
+  </si>
+  <si>
+    <t>2024-01-08 14:12:53</t>
+  </si>
+  <si>
+    <t>2024-01-08 14:18:46</t>
+  </si>
+  <si>
+    <t>2024-01-08 14:19:07</t>
+  </si>
+  <si>
+    <t>2024-01-08 14:20:43</t>
+  </si>
+  <si>
+    <t>2024-01-08 14:23:24</t>
+  </si>
+  <si>
+    <t>2024-01-08 14:24:18</t>
+  </si>
+  <si>
+    <t>2024-01-08 14:24:32</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>2024-01-08 14:27:27</t>
+  </si>
+  <si>
+    <t>2024-01-08 14:28:09</t>
+  </si>
+  <si>
+    <t>Mahasiswa</t>
+  </si>
+  <si>
+    <t>2024-01-08 14:28:22</t>
+  </si>
+  <si>
+    <t>Umum/Lainnya - Ibu Rumah Tangga</t>
+  </si>
+  <si>
+    <t>Lainnya - surat</t>
+  </si>
+  <si>
+    <t>2024-01-08 14:28:48</t>
+  </si>
+  <si>
+    <t>Ibu Rumah Tangga</t>
+  </si>
+  <si>
+    <t>surat</t>
+  </si>
+  <si>
+    <t>2024-01-08 14:32:39</t>
+  </si>
+  <si>
+    <t>2024-01-08 14:33:00</t>
+  </si>
+  <si>
+    <t>2024-01-08 14:33:18</t>
+  </si>
+  <si>
+    <t>2024-01-08 14:33:35</t>
+  </si>
+  <si>
+    <t>2024-01-08 15:59:25</t>
+  </si>
+  <si>
+    <t>Anime</t>
+  </si>
+  <si>
+    <t>mengantar Surat</t>
+  </si>
+  <si>
+    <t>2024-01-08 16:00:01</t>
+  </si>
+  <si>
+    <t>2024-01-08 20:11:08</t>
+  </si>
+  <si>
+    <t>2024-01-08 20:12:26</t>
+  </si>
+  <si>
+    <t>2024-01-08 20:51:32</t>
+  </si>
+  <si>
+    <t>2024-01-09 20:32:00</t>
+  </si>
+  <si>
+    <t>2024-01-11 12:12:40</t>
   </si>
   <si>
     <t>ahmad yani</t>
   </si>
   <si>
-    <t>2024-01-07 18:40:15</t>
-  </si>
-  <si>
-    <t>ongoing</t>
-  </si>
-  <si>
-    <t>2024-01-07 18:47:50</t>
-  </si>
-  <si>
-    <t>2024-01-07 18:49:36</t>
-  </si>
-  <si>
-    <t>AKA</t>
-  </si>
-  <si>
-    <t>-@1</t>
-  </si>
-  <si>
-    <t>2024-01-07 18:51:03</t>
-  </si>
-  <si>
-    <t>2024-01-07 18:52:30</t>
-  </si>
-  <si>
-    <t>2024-01-07 18:53:02</t>
-  </si>
-  <si>
-    <t>2024-01-07 18:53:30</t>
-  </si>
-  <si>
-    <t>2024-01-07 18:54:05</t>
-  </si>
-  <si>
-    <t>2024-01-07 18:54:43</t>
-  </si>
-  <si>
-    <t>AKAKAKA</t>
-  </si>
-  <si>
-    <t>2024-01-07 18:55:08</t>
-  </si>
-  <si>
-    <t>2024-01-07 18:56:02</t>
-  </si>
-  <si>
-    <t>Megi</t>
-  </si>
-  <si>
-    <t>a@gmail.com</t>
-  </si>
-  <si>
-    <t>2024-01-07 18:56:27</t>
-  </si>
-  <si>
-    <t>Mahasiswa</t>
-  </si>
-  <si>
-    <t>2024-01-07 18:57:19</t>
-  </si>
-  <si>
-    <t>2024-01-07 19:00:33</t>
-  </si>
-  <si>
-    <t>Umum/Lainnya</t>
-  </si>
-  <si>
-    <t>Lainnya</t>
-  </si>
-  <si>
-    <t>2024-01-07 19:04:06</t>
-  </si>
-  <si>
-    <t>2024-01-07 19:05:27</t>
+    <t>2024-01-11 16:44:01</t>
+  </si>
+  <si>
+    <t>2024-01-11 17:02:35</t>
   </si>
 </sst>
 </file>
@@ -645,7 +675,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,28 +752,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
       </c>
       <c r="J3" t="s">
         <v>18</v>
@@ -754,28 +784,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
         <v>18</v>
@@ -786,28 +816,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
         <v>30</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>31</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>
@@ -824,7 +854,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -833,13 +863,13 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
         <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
       </c>
       <c r="J6" t="s">
         <v>18</v>
@@ -856,7 +886,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -865,13 +895,13 @@
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
         <v>35</v>
-      </c>
-      <c r="I7" t="s">
-        <v>36</v>
       </c>
       <c r="J7" t="s">
         <v>18</v>
@@ -888,22 +918,22 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
         <v>37</v>
-      </c>
-      <c r="I8" t="s">
-        <v>38</v>
       </c>
       <c r="J8" t="s">
         <v>18</v>
@@ -923,19 +953,19 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
         <v>39</v>
-      </c>
-      <c r="I9" t="s">
-        <v>40</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
@@ -955,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
         <v>41</v>
-      </c>
-      <c r="I10" t="s">
-        <v>42</v>
       </c>
       <c r="J10" t="s">
         <v>18</v>
@@ -987,19 +1017,19 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s">
         <v>43</v>
-      </c>
-      <c r="I11" t="s">
-        <v>44</v>
       </c>
       <c r="J11" t="s">
         <v>18</v>
@@ -1010,28 +1040,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" t="s">
         <v>45</v>
-      </c>
-      <c r="I12" t="s">
-        <v>46</v>
       </c>
       <c r="J12" t="s">
         <v>18</v>
@@ -1042,22 +1072,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
         <v>47</v>
@@ -1074,22 +1104,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>49</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>20</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
       </c>
       <c r="H14" t="s">
         <v>50</v>
@@ -1106,28 +1136,26 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D15"/>
       <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
         <v>20</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>52</v>
       </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>53</v>
-      </c>
-      <c r="I15" t="s">
-        <v>54</v>
       </c>
       <c r="J15" t="s">
         <v>18</v>
@@ -1141,9 +1169,11 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16"/>
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
       <c r="E16" t="s">
         <v>13</v>
       </c>
@@ -1151,13 +1181,13 @@
         <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" t="s">
         <v>55</v>
-      </c>
-      <c r="I16" t="s">
-        <v>56</v>
       </c>
       <c r="J16" t="s">
         <v>18</v>
@@ -1168,22 +1198,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H17" t="s">
         <v>57</v>
@@ -1200,28 +1230,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" t="s">
         <v>60</v>
-      </c>
-      <c r="I18" t="s">
-        <v>61</v>
       </c>
       <c r="J18" t="s">
         <v>18</v>
@@ -1232,28 +1262,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" t="s">
         <v>62</v>
-      </c>
-      <c r="I19" t="s">
-        <v>63</v>
       </c>
       <c r="J19" t="s">
         <v>18</v>
@@ -1264,28 +1294,24 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
       </c>
-      <c r="F20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
+      <c r="F20"/>
+      <c r="G20"/>
       <c r="H20" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" t="s">
         <v>64</v>
-      </c>
-      <c r="I20" t="s">
-        <v>65</v>
       </c>
       <c r="J20" t="s">
         <v>18</v>
@@ -1296,28 +1322,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" t="s">
         <v>66</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" t="s">
-        <v>69</v>
-      </c>
-      <c r="I21" t="s">
-        <v>70</v>
       </c>
       <c r="J21" t="s">
         <v>18</v>
@@ -1328,25 +1354,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22"/>
-      <c r="G22"/>
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" t="s">
+        <v>68</v>
+      </c>
       <c r="H22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I22"/>
+        <v>69</v>
+      </c>
+      <c r="I22" t="s">
+        <v>70</v>
+      </c>
       <c r="J22" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1354,25 +1386,23 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C23"/>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I23"/>
       <c r="J23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1380,25 +1410,27 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F24"/>
-      <c r="G24"/>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
       <c r="H24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I24"/>
       <c r="J24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1406,29 +1438,27 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>52</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F25"/>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I25"/>
       <c r="J25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1436,25 +1466,27 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
       </c>
-      <c r="E26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26"/>
       <c r="G26"/>
       <c r="H26" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I26"/>
       <c r="J26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1462,25 +1494,29 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27"/>
-      <c r="G27"/>
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
       <c r="H27" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I27"/>
       <c r="J27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1488,25 +1524,25 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I28"/>
       <c r="J28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1517,22 +1553,22 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
         <v>49</v>
       </c>
-      <c r="E29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29"/>
       <c r="G29"/>
       <c r="H29" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I29"/>
       <c r="J29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1540,25 +1576,27 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30"/>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
         <v>49</v>
       </c>
-      <c r="E30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30"/>
-      <c r="G30"/>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
       <c r="H30" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I30"/>
       <c r="J30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1566,27 +1604,27 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I31"/>
       <c r="J31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1594,29 +1632,29 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="E32">
+        <v>121431314</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H32" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I32"/>
       <c r="J32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1624,29 +1662,29 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33">
+        <v>121431314</v>
+      </c>
+      <c r="F33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" t="s">
         <v>20</v>
       </c>
-      <c r="F33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
       <c r="H33" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I33"/>
       <c r="J33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1654,29 +1692,29 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="E34">
+        <v>121431314</v>
       </c>
       <c r="F34" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I34"/>
       <c r="J34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1684,29 +1722,29 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="E35">
+        <v>121431314</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I35"/>
       <c r="J35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1714,29 +1752,29 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="E36">
+        <v>182018</v>
       </c>
       <c r="F36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I36"/>
       <c r="J36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1744,29 +1782,359 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>182018</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I37"/>
       <c r="J37" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38">
+        <v>182018</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>90</v>
+      </c>
+      <c r="H38" t="s">
+        <v>93</v>
+      </c>
+      <c r="I38"/>
+      <c r="J38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39">
+        <v>182018</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39"/>
+      <c r="J39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40">
+        <v>182018</v>
+      </c>
+      <c r="F40" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" t="s">
+        <v>95</v>
+      </c>
+      <c r="I40"/>
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41">
+        <v>182018</v>
+      </c>
+      <c r="F41" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" t="s">
+        <v>97</v>
+      </c>
+      <c r="H41" t="s">
+        <v>98</v>
+      </c>
+      <c r="I41"/>
+      <c r="J41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>99</v>
+      </c>
+      <c r="I42"/>
+      <c r="J42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" t="s">
+        <v>84</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>100</v>
+      </c>
+      <c r="I43"/>
+      <c r="J43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" t="s">
+        <v>101</v>
+      </c>
+      <c r="I44"/>
+      <c r="J44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>102</v>
+      </c>
+      <c r="I45"/>
+      <c r="J45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" t="s">
+        <v>103</v>
+      </c>
+      <c r="I46"/>
+      <c r="J46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>105</v>
+      </c>
+      <c r="I47"/>
+      <c r="J47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" t="s">
+        <v>106</v>
+      </c>
+      <c r="I48"/>
+      <c r="J48" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
